--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_008.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_008.xlsx
@@ -31,322 +31,331 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
-  </si>
-  <si>
-    <t>(295023AK2.11) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Alternate fuel pool makeup systems</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA1.07) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
-  </si>
-  <si>
-    <t>(295027EK2.06) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(700000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operations status of safety-related (vital) buses</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295001AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295030EK2.05) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Containment/drywell atmospheric monitoring</t>
-  </si>
-  <si>
-    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
-  </si>
-  <si>
-    <t>(295005AK2.08) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295011AA1.01) Ability to operate and/or monitor the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling system</t>
-  </si>
-  <si>
-    <t>(295008AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) RCIC turbine trip</t>
-  </si>
-  <si>
-    <t>(500000EK2.10) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell hydrogen mixing compressors (BWR 6)</t>
-  </si>
-  <si>
-    <t>(295036EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Identification of a primary system discharging to secondary containment</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(205000K4.05) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
-  </si>
-  <si>
-    <t>(211000A4.06) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(215003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(215004K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291001K1.10) VALVES (CFR: 41.3) Principles of operation and purpose of check valves</t>
-  </si>
-  <si>
-    <t>(203000K4.09) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Surveillance for all operable components</t>
-  </si>
-  <si>
-    <t>(510000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Intake screen differential pressure/level</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(215005K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) IRMs</t>
-  </si>
-  <si>
-    <t>(264000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Generator load limits</t>
-  </si>
-  <si>
-    <t>(218000A4.04) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS inhibit</t>
-  </si>
-  <si>
-    <t>(259002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(217000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor vessel pressure</t>
-  </si>
-  <si>
-    <t>(262001A3.03) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Load shedding</t>
-  </si>
-  <si>
-    <t>(212000A2.05) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Nuclear boiler instrument system failure</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(205000K4.08) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevent inadvertent vessel draining</t>
-  </si>
-  <si>
-    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
-  </si>
-  <si>
-    <t>(239002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(272000A3.09) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
-  </si>
-  <si>
-    <t>(201005A2.03) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) Insert block</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (291002K1.21) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Effects of voltage changes on neutron detector performance</t>
-  </si>
-  <si>
-    <t>(201001K4.13) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Motor cooling</t>
-  </si>
-  <si>
-    <t>(268000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.5 / 45.5) Area radiation level</t>
-  </si>
-  <si>
-    <t>(259001K2.02) (SF2 FWS) FEEDWATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System motor-operated valves</t>
-  </si>
-  <si>
-    <t>(286000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Motor-driven fire pump</t>
-  </si>
-  <si>
-    <t>(256000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.5 / 45.3) Water conductivity</t>
-  </si>
-  <si>
-    <t>(202002A4.10) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Flow control valve</t>
-  </si>
-  <si>
-    <t>(290002K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(241000K3.17) Knowledge of the effect that a loss or malfunction of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Turbine acceleration</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295019AK2.17) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) High-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
+  </si>
+  <si>
+    <t>(295038EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(295003AK2.03) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295004AA1.02) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) Systems necessary to ensure safe plant shutdown</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295005AK2.07) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
+  </si>
+  <si>
+    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA2.01) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295029EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(500000EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen ignition/deflagration</t>
+  </si>
+  <si>
+    <t>(295009AA1.01) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215003A3.01) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Meters and recorders </t>
+  </si>
+  <si>
+    <t>(212000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A4.06) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
+  </si>
+  <si>
+    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(264000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Parallel vs. isochronous operation</t>
+  </si>
+  <si>
+    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
+  </si>
+  <si>
+    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
+  </si>
+  <si>
+    <t>(239002K4.01) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Ensures that only one or two safety/relief valves reopen following the initial portion of a reactor isolation event (low-low set logic)</t>
+  </si>
+  <si>
+    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
+  </si>
+  <si>
+    <t>(300000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Air dryers</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.01) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operational characteristics of venturis and orifices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
+  </si>
+  <si>
+    <t>(215005K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill system </t>
+  </si>
+  <si>
+    <t>(223002K3.05) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell floor and equipment drain system</t>
+  </si>
+  <si>
+    <t>(215004K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Changing detector position</t>
+  </si>
+  <si>
+    <t>(262001A2.11) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded bus voltages</t>
+  </si>
+  <si>
+    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
+  </si>
+  <si>
+    <t>(211000K4.05) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dispersal of boron upon injection into the vessel</t>
+  </si>
+  <si>
+    <t>(209001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Core spray flow</t>
+  </si>
+  <si>
+    <t>(209002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal condensate storage tank water level</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
+  </si>
+  <si>
+    <t>(212000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(261000A4.04) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(286000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Fire dampers</t>
+  </si>
+  <si>
+    <t>(256000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Condensate filter system</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (291006K1.11) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Relationship between condenser vacuum and backpressure</t>
+  </si>
+  <si>
+    <t>(226001A3.07) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(290001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 SC) SECONDARY CONTAINMENT and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fuel handling building ventilation</t>
+  </si>
+  <si>
+    <t>(288000A4.02) Ability to manually operate and/or monitor the (SF9 PVS) PLANT VENTILATION SYSTEMS in the control room: (CFR: 41.4 / 41.7 / 45.5 to 45.8) Area temperature</t>
+  </si>
+  <si>
+    <t>(259001K3.01) Knowledge of the effect that a loss or malfunction of the (SF2 FWS) FEEDWATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(241000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Turbine speed measurement</t>
+  </si>
+  <si>
+    <t>(230000A2.10) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Nuclear boiler instrument failures</t>
+  </si>
+  <si>
+    <t>(245000K2.02) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Lube oil pumps</t>
+  </si>
+  <si>
+    <t>(239001K4.07) Knowledge of (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Overpressure control</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
+  </si>
+  <si>
+    <t>(292008K1.02) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) List reactivity control mechanisms that exist for plant conditions during the approach to criticality</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AA2.05) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Swell</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A2.03) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low CCW temperature</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(271000A2.04) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas system high radiation</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(510001A2.02) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
   </si>
   <si>
     <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
   </si>
   <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
     <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
-  </si>
-  <si>
-    <t>(293006K1.11) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define net positive suction head (NPSH)</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment water level</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(261000A2.15) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High area radiation by refuel bridge</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215001A2.05) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(216000A2.14) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Partial or complete loss of recirculation flow</t>
-  </si>
-  <si>
-    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>K4</t>
@@ -355,15 +364,6 @@
     <t>K6</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295023</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295005</t>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>295009</t>
   </si>
   <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>271000</t>
   </si>
   <si>
     <t>268000</t>
   </si>
   <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>216000</t>
+    <t>510001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D39" t="s">
         <v>116</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
         <v>116</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2466,7 +2466,7 @@
         <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
